--- a/TravelInsuranceAutomation/Resources/Output/output.xlsx
+++ b/TravelInsuranceAutomation/Resources/Output/output.xlsx
@@ -6,13 +6,114 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Health" r:id="rId3" sheetId="1"/>
+    <sheet name="Travel" r:id="rId3" sheetId="1"/>
+    <sheet name="Car" r:id="rId4" sheetId="2"/>
+    <sheet name="Health" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+  <si>
+    <t>Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance price</t>
+  </si>
+  <si>
+    <t>Insurance company</t>
+  </si>
+  <si>
+    <t>Travel Assure Lite</t>
+  </si>
+  <si>
+    <t>₹2,237</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
+  </si>
+  <si>
+    <t>Overseas Travel Protection - Silver</t>
+  </si>
+  <si>
+    <t>₹2,277</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Explore Silver - Excluding US &amp; Canada</t>
+  </si>
+  <si>
+    <t>₹2,279</t>
+  </si>
+  <si>
+    <t>Cholamandalam</t>
+  </si>
+  <si>
+    <t>Travel Care Individual</t>
+  </si>
+  <si>
+    <t>₹2,684</t>
+  </si>
+  <si>
+    <t>Business and Holiday - Gold Plan A</t>
+  </si>
+  <si>
+    <t>₹2,718</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>Travel Ace Lite - Silver</t>
+  </si>
+  <si>
+    <t>₹2,762</t>
+  </si>
+  <si>
+    <t>Carefree Option</t>
+  </si>
+  <si>
+    <t>₹2,934</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Travel Shield Single Trip</t>
+  </si>
+  <si>
+    <t>Travel Guard - Silver Plus</t>
+  </si>
+  <si>
+    <t>₹3,202</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>Overseas Travel Ease</t>
+  </si>
+  <si>
+    <t>₹3,254</t>
+  </si>
+  <si>
+    <t>Overseas Business &amp; Holiday</t>
+  </si>
+  <si>
+    <t>₹3,559</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Invalid details</t>
+  </si>
+  <si>
+    <t>Please enter a valid e-mail ID.</t>
+  </si>
   <si>
     <t>Health Products</t>
   </si>
@@ -95,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,65 +206,233 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
